--- a/public/assets/templates/sht.xlsx
+++ b/public/assets/templates/sht.xlsx
@@ -2,21 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aldiansyah\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PTPN 1 REG 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029F15B2-74F0-4774-9968-1B1FE662ECC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9C7CD9-0621-4586-B7D1-2BBB4B660507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{94A0EECA-B67D-48A1-BFC2-FF1EB05B0FF1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" forceFullCalc="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -35,28 +38,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
+    <t>nama_peserta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nomor_pegawai </t>
+  </si>
+  <si>
+    <t>Hanya Angka</t>
+  </si>
+  <si>
+    <t>Aldiansyah Alayyubi</t>
+  </si>
+  <si>
     <t>IC/00</t>
   </si>
   <si>
     <t>I</t>
   </si>
   <si>
+    <t>Magang SDM Regular</t>
+  </si>
+  <si>
+    <t>SERANG</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
     <t>Proses Rekon</t>
   </si>
   <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nomor_pegawai </t>
-  </si>
-  <si>
-    <t>nama_peserta</t>
-  </si>
-  <si>
-    <t>Hanya Angka</t>
-  </si>
-  <si>
-    <t>mm/dd/yyyy</t>
+    <t>tgl_lahir</t>
+  </si>
+  <si>
+    <t>tgl_masuk</t>
   </si>
   <si>
     <t>mkg</t>
@@ -71,49 +86,22 @@
     <t>jumlah _sht</t>
   </si>
   <si>
-    <t>tgl_lahir</t>
-  </si>
-  <si>
-    <t>tgl_masuk</t>
-  </si>
-  <si>
     <t>kebun</t>
   </si>
   <si>
     <t>jenis_pensiun</t>
   </si>
   <si>
-    <t>Normal /Non Normal</t>
-  </si>
-  <si>
     <t>tgl_pensiun</t>
   </si>
   <si>
     <t>tahun_pensiun</t>
   </si>
   <si>
-    <t>yyyy</t>
-  </si>
-  <si>
     <t>keterangan</t>
   </si>
   <si>
-    <t>Proses Rekon/Lunas</t>
-  </si>
-  <si>
     <t>no_spp</t>
-  </si>
-  <si>
-    <t>kosongkan</t>
-  </si>
-  <si>
-    <t>Aldiansyah Alayyubi</t>
-  </si>
-  <si>
-    <t>SERANG</t>
-  </si>
-  <si>
-    <t>Magang SDM Regular</t>
   </si>
   <si>
     <r>
@@ -125,7 +113,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -136,7 +124,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -144,46 +132,46 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Data Tidak Boleh kosong Kecuali ( No SPP ) Dan Hanya boleh mengisi data dibawah warna kuning. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SEMUA DATA GENERAL</t>
-    </r>
-  </si>
-  <si>
-    <t>1011100349812</t>
+    <t>Normal /Non Normal</t>
+  </si>
+  <si>
+    <t>yyyy</t>
+  </si>
+  <si>
+    <t>Proses Rekon/Lunas</t>
+  </si>
+  <si>
+    <t>kosongkan</t>
+  </si>
+  <si>
+    <t>yyyy/mm/dd</t>
+  </si>
+  <si>
+    <t>101110034981200000</t>
+  </si>
+  <si>
+    <t>Data Tidak Boleh kosong Kecuali ( No SPP ) Dan Hanya boleh mengisi data dibawah warna kuning.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -191,14 +179,14 @@
       <i/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFF00"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -207,15 +195,14 @@
       <i/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -227,12 +214,17 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,8 +243,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -275,28 +273,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="8" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{8FCC365D-135F-464F-ACC6-8263B4B66558}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{B086A3C3-C115-4930-A25B-A10D3EE9E731}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{E8BEBF39-08BF-44A5-BE9E-40EFAF8FD1B1}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -309,7 +329,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -319,44 +339,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -384,14 +404,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -419,6 +456,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -430,365 +484,1095 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
+            <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:Q12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11B927C-A29A-43F0-A736-753C3815AD33}">
+  <dimension ref="A1:Q133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="61" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="102" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="106.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B1" s="4" t="s">
-        <v>4</v>
+    <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="H1" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="L1" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="M1" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>7</v>
+      <c r="E2" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="11">
+        <v>26100</v>
+      </c>
+      <c r="E3" s="11">
+        <v>1971</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="6">
+        <v>100000000</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="8">
-        <v>26100</v>
-      </c>
-      <c r="E3" s="8">
-        <v>36536</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="7">
-        <v>100000000</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="8">
-        <v>45628</v>
-      </c>
-      <c r="M3" s="7">
+      <c r="K3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="11">
+        <v>1971</v>
+      </c>
+      <c r="M3" s="6">
         <v>2024</v>
       </c>
-      <c r="N3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="N3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="6"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="7"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="7"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="7"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="7"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="7"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="7"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="7"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="7"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="7"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="7"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="7"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="7"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="7"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="7"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="7"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="7"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="7"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="7"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="7"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="7"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="7"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="7"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="7"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="7"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="7"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="7"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="7"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="7"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="7"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="7"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="7"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="7"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="7"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="7"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="7"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="7"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="7"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="7"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="7"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="7"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="7"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="7"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="7"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="7"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="7"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="7"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="7"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="7"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="7"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="7"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="7"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="7"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="7"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="7"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="7"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="7"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="7"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="7"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="7"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="7"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="7"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="7"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="7"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="7"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="7"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="7"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="7"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="7"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="7"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="7"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="7"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="7"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="7"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="7"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="7"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="7"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="7"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="7"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="7"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="7"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="7"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="7"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="7"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="7"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="7"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
